--- a/tables_updated.xlsx
+++ b/tables_updated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdolden\Desktop\Ch3_floweringrush\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E5DA136-6116-47D0-8ACB-A48B9F26080D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF86EB4-02B9-4548-89BE-A8AA9B510E1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{94130567-C790-4197-BF09-72317C0E58C5}"/>
   </bookViews>
@@ -2364,15 +2364,51 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2394,9 +2430,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2407,39 +2440,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2824,8 +2824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A735158-88E3-4592-A032-033FAF873106}">
   <dimension ref="B1:V62"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="50" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="50" zoomScalePageLayoutView="40" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2846,33 +2846,33 @@
   <sheetData>
     <row r="1" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:22" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E2" s="347" t="s">
+      <c r="E2" s="331" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="324"/>
-      <c r="G2" s="324"/>
-      <c r="H2" s="325"/>
+      <c r="F2" s="332"/>
+      <c r="G2" s="332"/>
+      <c r="H2" s="333"/>
       <c r="I2" s="23"/>
-      <c r="J2" s="323" t="s">
+      <c r="J2" s="337" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="324"/>
-      <c r="L2" s="325"/>
+      <c r="K2" s="332"/>
+      <c r="L2" s="333"/>
     </row>
     <row r="3" spans="2:22" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="335" t="s">
+      <c r="B3" s="346" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="336"/>
-      <c r="D3" s="337"/>
-      <c r="E3" s="329" t="s">
+      <c r="C3" s="347"/>
+      <c r="D3" s="348"/>
+      <c r="E3" s="341" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="330"/>
-      <c r="G3" s="331" t="s">
+      <c r="F3" s="342"/>
+      <c r="G3" s="343" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="330"/>
+      <c r="H3" s="342"/>
       <c r="I3" s="24"/>
       <c r="J3" s="19" t="s">
         <v>20</v>
@@ -2968,10 +2968,10 @@
       <c r="M6" s="1"/>
     </row>
     <row r="7" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="326" t="s">
+      <c r="B7" s="338" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="332" t="s">
+      <c r="C7" s="344" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="189" t="s">
@@ -3002,8 +3002,8 @@
       <c r="M7" s="3"/>
     </row>
     <row r="8" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="327"/>
-      <c r="C8" s="333"/>
+      <c r="B8" s="339"/>
+      <c r="C8" s="335"/>
       <c r="D8" s="31" t="s">
         <v>8</v>
       </c>
@@ -3032,8 +3032,8 @@
       <c r="M8" s="3"/>
     </row>
     <row r="9" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="327"/>
-      <c r="C9" s="333"/>
+      <c r="B9" s="339"/>
+      <c r="C9" s="335"/>
       <c r="D9" s="31" t="s">
         <v>1</v>
       </c>
@@ -3062,8 +3062,8 @@
       <c r="M9" s="3"/>
     </row>
     <row r="10" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="327"/>
-      <c r="C10" s="333"/>
+      <c r="B10" s="339"/>
+      <c r="C10" s="335"/>
       <c r="D10" s="31" t="s">
         <v>2</v>
       </c>
@@ -3092,8 +3092,8 @@
       <c r="M10" s="3"/>
     </row>
     <row r="11" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="327"/>
-      <c r="C11" s="333"/>
+      <c r="B11" s="339"/>
+      <c r="C11" s="335"/>
       <c r="D11" s="31" t="s">
         <v>3</v>
       </c>
@@ -3123,8 +3123,8 @@
       <c r="N11" s="12"/>
     </row>
     <row r="12" spans="2:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="327"/>
-      <c r="C12" s="334"/>
+      <c r="B12" s="339"/>
+      <c r="C12" s="345"/>
       <c r="D12" s="151" t="s">
         <v>4</v>
       </c>
@@ -3154,8 +3154,8 @@
       <c r="O12" s="12"/>
     </row>
     <row r="13" spans="2:22" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="327"/>
-      <c r="C13" s="338" t="s">
+      <c r="B13" s="339"/>
+      <c r="C13" s="334" t="s">
         <v>0</v>
       </c>
       <c r="D13" s="193" t="s">
@@ -3186,8 +3186,8 @@
       <c r="M13" s="3"/>
     </row>
     <row r="14" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="327"/>
-      <c r="C14" s="333"/>
+      <c r="B14" s="339"/>
+      <c r="C14" s="335"/>
       <c r="D14" s="31" t="s">
         <v>8</v>
       </c>
@@ -3216,8 +3216,8 @@
       <c r="M14" s="3"/>
     </row>
     <row r="15" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="327"/>
-      <c r="C15" s="333"/>
+      <c r="B15" s="339"/>
+      <c r="C15" s="335"/>
       <c r="D15" s="31" t="s">
         <v>1</v>
       </c>
@@ -3247,8 +3247,8 @@
       <c r="N15" s="12"/>
     </row>
     <row r="16" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="327"/>
-      <c r="C16" s="333"/>
+      <c r="B16" s="339"/>
+      <c r="C16" s="335"/>
       <c r="D16" s="31" t="s">
         <v>2</v>
       </c>
@@ -3284,8 +3284,8 @@
       <c r="V16" s="206"/>
     </row>
     <row r="17" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="327"/>
-      <c r="C17" s="333"/>
+      <c r="B17" s="339"/>
+      <c r="C17" s="335"/>
       <c r="D17" s="31" t="s">
         <v>3</v>
       </c>
@@ -3315,8 +3315,8 @@
       <c r="N17" s="12"/>
     </row>
     <row r="18" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="327"/>
-      <c r="C18" s="334"/>
+      <c r="B18" s="339"/>
+      <c r="C18" s="345"/>
       <c r="D18" s="151" t="s">
         <v>4</v>
       </c>
@@ -3345,8 +3345,8 @@
       <c r="M18" s="3"/>
     </row>
     <row r="19" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="327"/>
-      <c r="C19" s="338" t="s">
+      <c r="B19" s="339"/>
+      <c r="C19" s="334" t="s">
         <v>30</v>
       </c>
       <c r="D19" s="193" t="s">
@@ -3378,8 +3378,8 @@
       <c r="N19" s="12"/>
     </row>
     <row r="20" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="327"/>
-      <c r="C20" s="333"/>
+      <c r="B20" s="339"/>
+      <c r="C20" s="335"/>
       <c r="D20" s="31" t="s">
         <v>8</v>
       </c>
@@ -3409,8 +3409,8 @@
       <c r="N20" s="12"/>
     </row>
     <row r="21" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="327"/>
-      <c r="C21" s="333"/>
+      <c r="B21" s="339"/>
+      <c r="C21" s="335"/>
       <c r="D21" s="31" t="s">
         <v>1</v>
       </c>
@@ -3440,8 +3440,8 @@
       <c r="N21" s="12"/>
     </row>
     <row r="22" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="327"/>
-      <c r="C22" s="333"/>
+      <c r="B22" s="339"/>
+      <c r="C22" s="335"/>
       <c r="D22" s="31" t="s">
         <v>2</v>
       </c>
@@ -3471,8 +3471,8 @@
       <c r="N22" s="12"/>
     </row>
     <row r="23" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="327"/>
-      <c r="C23" s="333"/>
+      <c r="B23" s="339"/>
+      <c r="C23" s="335"/>
       <c r="D23" s="31" t="s">
         <v>3</v>
       </c>
@@ -3501,8 +3501,8 @@
       <c r="M23" s="3"/>
     </row>
     <row r="24" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="328"/>
-      <c r="C24" s="348"/>
+      <c r="B24" s="340"/>
+      <c r="C24" s="336"/>
       <c r="D24" s="190" t="s">
         <v>4</v>
       </c>
@@ -3544,10 +3544,10 @@
       <c r="L25" s="16"/>
     </row>
     <row r="26" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="339" t="s">
+      <c r="B26" s="323" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="342" t="s">
+      <c r="C26" s="326" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="32" t="s">
@@ -3577,8 +3577,8 @@
       </c>
     </row>
     <row r="27" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="340"/>
-      <c r="C27" s="343"/>
+      <c r="B27" s="324"/>
+      <c r="C27" s="327"/>
       <c r="D27" s="31" t="s">
         <v>8</v>
       </c>
@@ -3606,8 +3606,8 @@
       </c>
     </row>
     <row r="28" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="340"/>
-      <c r="C28" s="343"/>
+      <c r="B28" s="324"/>
+      <c r="C28" s="327"/>
       <c r="D28" s="31" t="s">
         <v>1</v>
       </c>
@@ -3635,8 +3635,8 @@
       </c>
     </row>
     <row r="29" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="340"/>
-      <c r="C29" s="343"/>
+      <c r="B29" s="324"/>
+      <c r="C29" s="327"/>
       <c r="D29" s="31" t="s">
         <v>2</v>
       </c>
@@ -3664,8 +3664,8 @@
       </c>
     </row>
     <row r="30" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="340"/>
-      <c r="C30" s="343"/>
+      <c r="B30" s="324"/>
+      <c r="C30" s="327"/>
       <c r="D30" s="31" t="s">
         <v>3</v>
       </c>
@@ -3693,8 +3693,8 @@
       </c>
     </row>
     <row r="31" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="340"/>
-      <c r="C31" s="344"/>
+      <c r="B31" s="324"/>
+      <c r="C31" s="328"/>
       <c r="D31" s="151" t="s">
         <v>4</v>
       </c>
@@ -3723,8 +3723,8 @@
       <c r="N31" s="12"/>
     </row>
     <row r="32" spans="2:14" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="340"/>
-      <c r="C32" s="345" t="s">
+      <c r="B32" s="324"/>
+      <c r="C32" s="329" t="s">
         <v>0</v>
       </c>
       <c r="D32" s="193" t="s">
@@ -3755,8 +3755,8 @@
       <c r="N32" s="12"/>
     </row>
     <row r="33" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="340"/>
-      <c r="C33" s="343"/>
+      <c r="B33" s="324"/>
+      <c r="C33" s="327"/>
       <c r="D33" s="31" t="s">
         <v>8</v>
       </c>
@@ -3784,8 +3784,8 @@
       </c>
     </row>
     <row r="34" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B34" s="340"/>
-      <c r="C34" s="343"/>
+      <c r="B34" s="324"/>
+      <c r="C34" s="327"/>
       <c r="D34" s="31" t="s">
         <v>1</v>
       </c>
@@ -3813,8 +3813,8 @@
       </c>
     </row>
     <row r="35" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B35" s="340"/>
-      <c r="C35" s="343"/>
+      <c r="B35" s="324"/>
+      <c r="C35" s="327"/>
       <c r="D35" s="31" t="s">
         <v>2</v>
       </c>
@@ -3842,8 +3842,8 @@
       </c>
     </row>
     <row r="36" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B36" s="340"/>
-      <c r="C36" s="343"/>
+      <c r="B36" s="324"/>
+      <c r="C36" s="327"/>
       <c r="D36" s="31" t="s">
         <v>3</v>
       </c>
@@ -3871,8 +3871,8 @@
       </c>
     </row>
     <row r="37" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="340"/>
-      <c r="C37" s="344"/>
+      <c r="B37" s="324"/>
+      <c r="C37" s="328"/>
       <c r="D37" s="151" t="s">
         <v>4</v>
       </c>
@@ -3900,8 +3900,8 @@
       </c>
     </row>
     <row r="38" spans="2:12" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="340"/>
-      <c r="C38" s="343" t="s">
+      <c r="B38" s="324"/>
+      <c r="C38" s="327" t="s">
         <v>30</v>
       </c>
       <c r="D38" s="189" t="s">
@@ -3931,8 +3931,8 @@
       </c>
     </row>
     <row r="39" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B39" s="340"/>
-      <c r="C39" s="343"/>
+      <c r="B39" s="324"/>
+      <c r="C39" s="327"/>
       <c r="D39" s="31" t="s">
         <v>8</v>
       </c>
@@ -3960,8 +3960,8 @@
       </c>
     </row>
     <row r="40" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="340"/>
-      <c r="C40" s="343"/>
+      <c r="B40" s="324"/>
+      <c r="C40" s="327"/>
       <c r="D40" s="31" t="s">
         <v>1</v>
       </c>
@@ -3989,8 +3989,8 @@
       </c>
     </row>
     <row r="41" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B41" s="340"/>
-      <c r="C41" s="343"/>
+      <c r="B41" s="324"/>
+      <c r="C41" s="327"/>
       <c r="D41" s="31" t="s">
         <v>2</v>
       </c>
@@ -4018,8 +4018,8 @@
       </c>
     </row>
     <row r="42" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B42" s="340"/>
-      <c r="C42" s="343"/>
+      <c r="B42" s="324"/>
+      <c r="C42" s="327"/>
       <c r="D42" s="31" t="s">
         <v>3</v>
       </c>
@@ -4047,8 +4047,8 @@
       </c>
     </row>
     <row r="43" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="341"/>
-      <c r="C43" s="346"/>
+      <c r="B43" s="325"/>
+      <c r="C43" s="330"/>
       <c r="D43" s="190" t="s">
         <v>4</v>
       </c>
@@ -4089,10 +4089,10 @@
       <c r="L44" s="182"/>
     </row>
     <row r="45" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B45" s="339" t="s">
+      <c r="B45" s="323" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="342" t="s">
+      <c r="C45" s="326" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="32" t="s">
@@ -4108,8 +4108,8 @@
       <c r="L45" s="72"/>
     </row>
     <row r="46" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B46" s="340"/>
-      <c r="C46" s="343"/>
+      <c r="B46" s="324"/>
+      <c r="C46" s="327"/>
       <c r="D46" s="31" t="s">
         <v>8</v>
       </c>
@@ -4123,8 +4123,8 @@
       <c r="L46" s="53"/>
     </row>
     <row r="47" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="340"/>
-      <c r="C47" s="343"/>
+      <c r="B47" s="324"/>
+      <c r="C47" s="327"/>
       <c r="D47" s="31" t="s">
         <v>1</v>
       </c>
@@ -4138,8 +4138,8 @@
       <c r="L47" s="81"/>
     </row>
     <row r="48" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B48" s="340"/>
-      <c r="C48" s="343"/>
+      <c r="B48" s="324"/>
+      <c r="C48" s="327"/>
       <c r="D48" s="31" t="s">
         <v>2</v>
       </c>
@@ -4153,8 +4153,8 @@
       <c r="L48" s="82"/>
     </row>
     <row r="49" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B49" s="340"/>
-      <c r="C49" s="343"/>
+      <c r="B49" s="324"/>
+      <c r="C49" s="327"/>
       <c r="D49" s="31" t="s">
         <v>3</v>
       </c>
@@ -4168,8 +4168,8 @@
       <c r="L49" s="82"/>
     </row>
     <row r="50" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="340"/>
-      <c r="C50" s="344"/>
+      <c r="B50" s="324"/>
+      <c r="C50" s="328"/>
       <c r="D50" s="151" t="s">
         <v>4</v>
       </c>
@@ -4183,8 +4183,8 @@
       <c r="L50" s="83"/>
     </row>
     <row r="51" spans="2:12" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="340"/>
-      <c r="C51" s="345" t="s">
+      <c r="B51" s="324"/>
+      <c r="C51" s="329" t="s">
         <v>0</v>
       </c>
       <c r="D51" s="193" t="s">
@@ -4200,8 +4200,8 @@
       <c r="L51" s="188"/>
     </row>
     <row r="52" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B52" s="340"/>
-      <c r="C52" s="343"/>
+      <c r="B52" s="324"/>
+      <c r="C52" s="327"/>
       <c r="D52" s="31" t="s">
         <v>8</v>
       </c>
@@ -4215,8 +4215,8 @@
       <c r="L52" s="60"/>
     </row>
     <row r="53" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B53" s="340"/>
-      <c r="C53" s="343"/>
+      <c r="B53" s="324"/>
+      <c r="C53" s="327"/>
       <c r="D53" s="31" t="s">
         <v>1</v>
       </c>
@@ -4230,8 +4230,8 @@
       <c r="L53" s="60"/>
     </row>
     <row r="54" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B54" s="340"/>
-      <c r="C54" s="343"/>
+      <c r="B54" s="324"/>
+      <c r="C54" s="327"/>
       <c r="D54" s="31" t="s">
         <v>2</v>
       </c>
@@ -4245,8 +4245,8 @@
       <c r="L54" s="60"/>
     </row>
     <row r="55" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B55" s="340"/>
-      <c r="C55" s="343"/>
+      <c r="B55" s="324"/>
+      <c r="C55" s="327"/>
       <c r="D55" s="31" t="s">
         <v>3</v>
       </c>
@@ -4260,8 +4260,8 @@
       <c r="L55" s="84"/>
     </row>
     <row r="56" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="340"/>
-      <c r="C56" s="344"/>
+      <c r="B56" s="324"/>
+      <c r="C56" s="328"/>
       <c r="D56" s="151" t="s">
         <v>4</v>
       </c>
@@ -4275,8 +4275,8 @@
       <c r="L56" s="194"/>
     </row>
     <row r="57" spans="2:12" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="340"/>
-      <c r="C57" s="343" t="s">
+      <c r="B57" s="324"/>
+      <c r="C57" s="327" t="s">
         <v>30</v>
       </c>
       <c r="D57" s="189" t="s">
@@ -4292,8 +4292,8 @@
       <c r="L57" s="84"/>
     </row>
     <row r="58" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B58" s="340"/>
-      <c r="C58" s="343"/>
+      <c r="B58" s="324"/>
+      <c r="C58" s="327"/>
       <c r="D58" s="31" t="s">
         <v>8</v>
       </c>
@@ -4307,8 +4307,8 @@
       <c r="L58" s="60"/>
     </row>
     <row r="59" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B59" s="340"/>
-      <c r="C59" s="343"/>
+      <c r="B59" s="324"/>
+      <c r="C59" s="327"/>
       <c r="D59" s="31" t="s">
         <v>1</v>
       </c>
@@ -4322,8 +4322,8 @@
       <c r="L59" s="60"/>
     </row>
     <row r="60" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B60" s="340"/>
-      <c r="C60" s="343"/>
+      <c r="B60" s="324"/>
+      <c r="C60" s="327"/>
       <c r="D60" s="31" t="s">
         <v>2</v>
       </c>
@@ -4337,8 +4337,8 @@
       <c r="L60" s="60"/>
     </row>
     <row r="61" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B61" s="340"/>
-      <c r="C61" s="343"/>
+      <c r="B61" s="324"/>
+      <c r="C61" s="327"/>
       <c r="D61" s="31" t="s">
         <v>3</v>
       </c>
@@ -4352,8 +4352,8 @@
       <c r="L61" s="84"/>
     </row>
     <row r="62" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="341"/>
-      <c r="C62" s="346"/>
+      <c r="B62" s="325"/>
+      <c r="C62" s="330"/>
       <c r="D62" s="190" t="s">
         <v>4</v>
       </c>
@@ -4368,6 +4368,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="B7:B24"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="C7:C12"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="C13:C18"/>
     <mergeCell ref="B45:B62"/>
     <mergeCell ref="C45:C50"/>
     <mergeCell ref="C51:C56"/>
@@ -4378,13 +4385,6 @@
     <mergeCell ref="C26:C31"/>
     <mergeCell ref="C32:C37"/>
     <mergeCell ref="C38:C43"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="B7:B24"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="C7:C12"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="C13:C18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4417,33 +4417,33 @@
   <sheetData>
     <row r="1" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:22" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E2" s="347" t="s">
+      <c r="E2" s="331" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="324"/>
-      <c r="G2" s="324"/>
-      <c r="H2" s="325"/>
+      <c r="F2" s="332"/>
+      <c r="G2" s="332"/>
+      <c r="H2" s="333"/>
       <c r="I2" s="23"/>
-      <c r="J2" s="323" t="s">
+      <c r="J2" s="337" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="324"/>
-      <c r="L2" s="325"/>
+      <c r="K2" s="332"/>
+      <c r="L2" s="333"/>
     </row>
     <row r="3" spans="2:22" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="335" t="s">
+      <c r="B3" s="346" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="336"/>
-      <c r="D3" s="337"/>
-      <c r="E3" s="329" t="s">
+      <c r="C3" s="347"/>
+      <c r="D3" s="348"/>
+      <c r="E3" s="341" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="330"/>
-      <c r="G3" s="331" t="s">
+      <c r="F3" s="342"/>
+      <c r="G3" s="343" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="330"/>
+      <c r="H3" s="342"/>
       <c r="I3" s="24"/>
       <c r="J3" s="19" t="s">
         <v>20</v>
@@ -4573,8 +4573,8 @@
       <c r="M7" s="3"/>
     </row>
     <row r="8" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="327"/>
-      <c r="C8" s="343"/>
+      <c r="B8" s="339"/>
+      <c r="C8" s="327"/>
       <c r="D8" s="299" t="s">
         <v>2</v>
       </c>
@@ -4603,8 +4603,8 @@
       <c r="M8" s="3"/>
     </row>
     <row r="9" spans="2:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="327"/>
-      <c r="C9" s="344"/>
+      <c r="B9" s="339"/>
+      <c r="C9" s="328"/>
       <c r="D9" s="301" t="s">
         <v>3</v>
       </c>
@@ -4634,8 +4634,8 @@
       <c r="N9" s="12"/>
     </row>
     <row r="10" spans="2:22" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="327"/>
-      <c r="C10" s="333" t="s">
+      <c r="B10" s="339"/>
+      <c r="C10" s="335" t="s">
         <v>0</v>
       </c>
       <c r="D10" s="302" t="s">
@@ -4666,8 +4666,8 @@
       <c r="M10" s="3"/>
     </row>
     <row r="11" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="327"/>
-      <c r="C11" s="333"/>
+      <c r="B11" s="339"/>
+      <c r="C11" s="335"/>
       <c r="D11" s="299" t="s">
         <v>2</v>
       </c>
@@ -4703,8 +4703,8 @@
       <c r="V11" s="206"/>
     </row>
     <row r="12" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="327"/>
-      <c r="C12" s="333"/>
+      <c r="B12" s="339"/>
+      <c r="C12" s="335"/>
       <c r="D12" s="299" t="s">
         <v>3</v>
       </c>
@@ -4734,8 +4734,8 @@
       <c r="N12" s="12"/>
     </row>
     <row r="13" spans="2:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="327"/>
-      <c r="C13" s="334"/>
+      <c r="B13" s="339"/>
+      <c r="C13" s="345"/>
       <c r="D13" s="303" t="s">
         <v>4</v>
       </c>
@@ -4764,8 +4764,8 @@
       <c r="M13" s="3"/>
     </row>
     <row r="14" spans="2:22" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="327"/>
-      <c r="C14" s="333" t="s">
+      <c r="B14" s="339"/>
+      <c r="C14" s="335" t="s">
         <v>30</v>
       </c>
       <c r="D14" s="299" t="s">
@@ -4797,8 +4797,8 @@
       <c r="N14" s="12"/>
     </row>
     <row r="15" spans="2:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="328"/>
-      <c r="C15" s="348"/>
+      <c r="B15" s="340"/>
+      <c r="C15" s="336"/>
       <c r="D15" s="304" t="s">
         <v>3</v>
       </c>
@@ -4840,10 +4840,10 @@
       <c r="L16" s="16"/>
     </row>
     <row r="17" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="339" t="s">
+      <c r="B17" s="323" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="342" t="s">
+      <c r="C17" s="326" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="32" t="s">
@@ -4873,8 +4873,8 @@
       </c>
     </row>
     <row r="18" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="340"/>
-      <c r="C18" s="343"/>
+      <c r="B18" s="324"/>
+      <c r="C18" s="327"/>
       <c r="D18" s="31" t="s">
         <v>2</v>
       </c>
@@ -4902,8 +4902,8 @@
       </c>
     </row>
     <row r="19" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="340"/>
-      <c r="C19" s="343"/>
+      <c r="B19" s="324"/>
+      <c r="C19" s="327"/>
       <c r="D19" s="31" t="s">
         <v>3</v>
       </c>
@@ -4931,8 +4931,8 @@
       </c>
     </row>
     <row r="20" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="340"/>
-      <c r="C20" s="344"/>
+      <c r="B20" s="324"/>
+      <c r="C20" s="328"/>
       <c r="D20" s="151" t="s">
         <v>4</v>
       </c>
@@ -4961,8 +4961,8 @@
       <c r="N20" s="12"/>
     </row>
     <row r="21" spans="2:14" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="340"/>
-      <c r="C21" s="343" t="s">
+      <c r="B21" s="324"/>
+      <c r="C21" s="327" t="s">
         <v>0</v>
       </c>
       <c r="D21" s="31" t="s">
@@ -4992,8 +4992,8 @@
       </c>
     </row>
     <row r="22" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="340"/>
-      <c r="C22" s="343"/>
+      <c r="B22" s="324"/>
+      <c r="C22" s="327"/>
       <c r="D22" s="31" t="s">
         <v>3</v>
       </c>
@@ -5021,8 +5021,8 @@
       </c>
     </row>
     <row r="23" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="340"/>
-      <c r="C23" s="344"/>
+      <c r="B23" s="324"/>
+      <c r="C23" s="328"/>
       <c r="D23" s="151" t="s">
         <v>4</v>
       </c>
@@ -5050,8 +5050,8 @@
       </c>
     </row>
     <row r="24" spans="2:14" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="340"/>
-      <c r="C24" s="343" t="s">
+      <c r="B24" s="324"/>
+      <c r="C24" s="327" t="s">
         <v>30</v>
       </c>
       <c r="D24" s="189" t="s">
@@ -5081,8 +5081,8 @@
       </c>
     </row>
     <row r="25" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="340"/>
-      <c r="C25" s="343"/>
+      <c r="B25" s="324"/>
+      <c r="C25" s="327"/>
       <c r="D25" s="31" t="s">
         <v>8</v>
       </c>
@@ -5110,8 +5110,8 @@
       </c>
     </row>
     <row r="26" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="340"/>
-      <c r="C26" s="343"/>
+      <c r="B26" s="324"/>
+      <c r="C26" s="327"/>
       <c r="D26" s="31" t="s">
         <v>2</v>
       </c>
@@ -5139,8 +5139,8 @@
       </c>
     </row>
     <row r="27" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="340"/>
-      <c r="C27" s="343"/>
+      <c r="B27" s="324"/>
+      <c r="C27" s="327"/>
       <c r="D27" s="31" t="s">
         <v>3</v>
       </c>
@@ -5181,10 +5181,10 @@
       <c r="L28" s="182"/>
     </row>
     <row r="29" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="339" t="s">
+      <c r="B29" s="323" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="342" t="s">
+      <c r="C29" s="326" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="32" t="s">
@@ -5200,8 +5200,8 @@
       <c r="L29" s="72"/>
     </row>
     <row r="30" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="340"/>
-      <c r="C30" s="343"/>
+      <c r="B30" s="324"/>
+      <c r="C30" s="327"/>
       <c r="D30" s="31" t="s">
         <v>8</v>
       </c>
@@ -5215,8 +5215,8 @@
       <c r="L30" s="53"/>
     </row>
     <row r="31" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B31" s="340"/>
-      <c r="C31" s="343"/>
+      <c r="B31" s="324"/>
+      <c r="C31" s="327"/>
       <c r="D31" s="31" t="s">
         <v>1</v>
       </c>
@@ -5230,8 +5230,8 @@
       <c r="L31" s="81"/>
     </row>
     <row r="32" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B32" s="340"/>
-      <c r="C32" s="343"/>
+      <c r="B32" s="324"/>
+      <c r="C32" s="327"/>
       <c r="D32" s="31" t="s">
         <v>2</v>
       </c>
@@ -5245,8 +5245,8 @@
       <c r="L32" s="82"/>
     </row>
     <row r="33" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="340"/>
-      <c r="C33" s="343"/>
+      <c r="B33" s="324"/>
+      <c r="C33" s="327"/>
       <c r="D33" s="31" t="s">
         <v>3</v>
       </c>
@@ -5260,8 +5260,8 @@
       <c r="L33" s="82"/>
     </row>
     <row r="34" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="340"/>
-      <c r="C34" s="344"/>
+      <c r="B34" s="324"/>
+      <c r="C34" s="328"/>
       <c r="D34" s="151" t="s">
         <v>4</v>
       </c>
@@ -5275,8 +5275,8 @@
       <c r="L34" s="83"/>
     </row>
     <row r="35" spans="2:12" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="340"/>
-      <c r="C35" s="345" t="s">
+      <c r="B35" s="324"/>
+      <c r="C35" s="329" t="s">
         <v>0</v>
       </c>
       <c r="D35" s="193" t="s">
@@ -5292,8 +5292,8 @@
       <c r="L35" s="188"/>
     </row>
     <row r="36" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B36" s="340"/>
-      <c r="C36" s="343"/>
+      <c r="B36" s="324"/>
+      <c r="C36" s="327"/>
       <c r="D36" s="31" t="s">
         <v>8</v>
       </c>
@@ -5307,8 +5307,8 @@
       <c r="L36" s="60"/>
     </row>
     <row r="37" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B37" s="340"/>
-      <c r="C37" s="343"/>
+      <c r="B37" s="324"/>
+      <c r="C37" s="327"/>
       <c r="D37" s="31" t="s">
         <v>1</v>
       </c>
@@ -5322,8 +5322,8 @@
       <c r="L37" s="60"/>
     </row>
     <row r="38" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B38" s="340"/>
-      <c r="C38" s="343"/>
+      <c r="B38" s="324"/>
+      <c r="C38" s="327"/>
       <c r="D38" s="31" t="s">
         <v>2</v>
       </c>
@@ -5337,8 +5337,8 @@
       <c r="L38" s="60"/>
     </row>
     <row r="39" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B39" s="340"/>
-      <c r="C39" s="343"/>
+      <c r="B39" s="324"/>
+      <c r="C39" s="327"/>
       <c r="D39" s="31" t="s">
         <v>3</v>
       </c>
@@ -5352,8 +5352,8 @@
       <c r="L39" s="84"/>
     </row>
     <row r="40" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="340"/>
-      <c r="C40" s="344"/>
+      <c r="B40" s="324"/>
+      <c r="C40" s="328"/>
       <c r="D40" s="151" t="s">
         <v>4</v>
       </c>
@@ -5367,8 +5367,8 @@
       <c r="L40" s="194"/>
     </row>
     <row r="41" spans="2:12" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="340"/>
-      <c r="C41" s="343" t="s">
+      <c r="B41" s="324"/>
+      <c r="C41" s="327" t="s">
         <v>30</v>
       </c>
       <c r="D41" s="189" t="s">
@@ -5384,8 +5384,8 @@
       <c r="L41" s="84"/>
     </row>
     <row r="42" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B42" s="340"/>
-      <c r="C42" s="343"/>
+      <c r="B42" s="324"/>
+      <c r="C42" s="327"/>
       <c r="D42" s="31" t="s">
         <v>8</v>
       </c>
@@ -5399,8 +5399,8 @@
       <c r="L42" s="60"/>
     </row>
     <row r="43" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B43" s="340"/>
-      <c r="C43" s="343"/>
+      <c r="B43" s="324"/>
+      <c r="C43" s="327"/>
       <c r="D43" s="31" t="s">
         <v>1</v>
       </c>
@@ -5414,8 +5414,8 @@
       <c r="L43" s="60"/>
     </row>
     <row r="44" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B44" s="340"/>
-      <c r="C44" s="343"/>
+      <c r="B44" s="324"/>
+      <c r="C44" s="327"/>
       <c r="D44" s="31" t="s">
         <v>2</v>
       </c>
@@ -5429,8 +5429,8 @@
       <c r="L44" s="60"/>
     </row>
     <row r="45" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B45" s="340"/>
-      <c r="C45" s="343"/>
+      <c r="B45" s="324"/>
+      <c r="C45" s="327"/>
       <c r="D45" s="31" t="s">
         <v>3</v>
       </c>
@@ -5444,8 +5444,8 @@
       <c r="L45" s="84"/>
     </row>
     <row r="46" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="341"/>
-      <c r="C46" s="346"/>
+      <c r="B46" s="325"/>
+      <c r="C46" s="330"/>
       <c r="D46" s="190" t="s">
         <v>4</v>
       </c>
@@ -5460,11 +5460,10 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B7:B15"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="B29:B46"/>
+    <mergeCell ref="C29:C34"/>
+    <mergeCell ref="C35:C40"/>
+    <mergeCell ref="C41:C46"/>
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="E3:F3"/>
@@ -5473,10 +5472,11 @@
     <mergeCell ref="C17:C20"/>
     <mergeCell ref="C21:C23"/>
     <mergeCell ref="C24:C27"/>
-    <mergeCell ref="B29:B46"/>
-    <mergeCell ref="C29:C34"/>
-    <mergeCell ref="C35:C40"/>
-    <mergeCell ref="C41:C46"/>
+    <mergeCell ref="B7:B15"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="E2:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5488,7 +5488,7 @@
   <dimension ref="B1:V27"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="50" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+      <selection activeCell="F12" sqref="F12:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5531,18 +5531,18 @@
       <c r="B3"/>
       <c r="C3"/>
       <c r="D3"/>
-      <c r="E3" s="347" t="s">
+      <c r="E3" s="331" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="324"/>
-      <c r="G3" s="324"/>
-      <c r="H3" s="325"/>
+      <c r="F3" s="332"/>
+      <c r="G3" s="332"/>
+      <c r="H3" s="333"/>
       <c r="I3" s="23"/>
-      <c r="J3" s="323" t="s">
+      <c r="J3" s="337" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="324"/>
-      <c r="L3" s="325"/>
+      <c r="K3" s="332"/>
+      <c r="L3" s="333"/>
     </row>
     <row r="4" spans="2:22" s="39" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="357" t="s">
@@ -5550,14 +5550,14 @@
       </c>
       <c r="C4" s="358"/>
       <c r="D4" s="359"/>
-      <c r="E4" s="329" t="s">
+      <c r="E4" s="341" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="330"/>
-      <c r="G4" s="331" t="s">
+      <c r="F4" s="342"/>
+      <c r="G4" s="343" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="330"/>
+      <c r="H4" s="342"/>
       <c r="I4" s="24"/>
       <c r="J4" s="19" t="s">
         <v>20</v>
@@ -6119,7 +6119,7 @@
   <dimension ref="B1:N62"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="50" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection activeCell="F5" sqref="F5:F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6141,18 +6141,18 @@
   <sheetData>
     <row r="1" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:14" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E2" s="347" t="s">
+      <c r="E2" s="331" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="324"/>
-      <c r="G2" s="324"/>
-      <c r="H2" s="325"/>
+      <c r="F2" s="332"/>
+      <c r="G2" s="332"/>
+      <c r="H2" s="333"/>
       <c r="I2" s="23"/>
-      <c r="J2" s="323" t="s">
+      <c r="J2" s="337" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="324"/>
-      <c r="L2" s="325"/>
+      <c r="K2" s="332"/>
+      <c r="L2" s="333"/>
     </row>
     <row r="3" spans="2:14" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="357" t="s">
@@ -6160,14 +6160,14 @@
       </c>
       <c r="C3" s="358"/>
       <c r="D3" s="359"/>
-      <c r="E3" s="329" t="s">
+      <c r="E3" s="341" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="330"/>
-      <c r="G3" s="331" t="s">
+      <c r="F3" s="342"/>
+      <c r="G3" s="343" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="330"/>
+      <c r="H3" s="342"/>
       <c r="I3" s="24"/>
       <c r="J3" s="19" t="s">
         <v>20</v>
@@ -6263,7 +6263,7 @@
       <c r="M6" s="1"/>
     </row>
     <row r="7" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="340" t="s">
+      <c r="B7" s="324" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="360" t="s">
@@ -6297,8 +6297,8 @@
       <c r="M7" s="3"/>
     </row>
     <row r="8" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="340"/>
-      <c r="C8" s="343"/>
+      <c r="B8" s="324"/>
+      <c r="C8" s="327"/>
       <c r="D8" s="9" t="s">
         <v>8</v>
       </c>
@@ -6328,8 +6328,8 @@
       <c r="N8" s="12"/>
     </row>
     <row r="9" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="340"/>
-      <c r="C9" s="343"/>
+      <c r="B9" s="324"/>
+      <c r="C9" s="327"/>
       <c r="D9" s="10" t="s">
         <v>1</v>
       </c>
@@ -6359,8 +6359,8 @@
       <c r="N9" s="12"/>
     </row>
     <row r="10" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="340"/>
-      <c r="C10" s="343"/>
+      <c r="B10" s="324"/>
+      <c r="C10" s="327"/>
       <c r="D10" s="9" t="s">
         <v>2</v>
       </c>
@@ -6389,8 +6389,8 @@
       <c r="M10" s="3"/>
     </row>
     <row r="11" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="340"/>
-      <c r="C11" s="343"/>
+      <c r="B11" s="324"/>
+      <c r="C11" s="327"/>
       <c r="D11" s="9" t="s">
         <v>3</v>
       </c>
@@ -6419,8 +6419,8 @@
       <c r="M11" s="2"/>
     </row>
     <row r="12" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="340"/>
-      <c r="C12" s="344"/>
+      <c r="B12" s="324"/>
+      <c r="C12" s="328"/>
       <c r="D12" s="11" t="s">
         <v>4</v>
       </c>
@@ -6449,8 +6449,8 @@
       <c r="M12" s="3"/>
     </row>
     <row r="13" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="340"/>
-      <c r="C13" s="345" t="s">
+      <c r="B13" s="324"/>
+      <c r="C13" s="329" t="s">
         <v>0</v>
       </c>
       <c r="D13" s="10" t="s">
@@ -6481,8 +6481,8 @@
       <c r="M13" s="3"/>
     </row>
     <row r="14" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="340"/>
-      <c r="C14" s="343"/>
+      <c r="B14" s="324"/>
+      <c r="C14" s="327"/>
       <c r="D14" s="9" t="s">
         <v>8</v>
       </c>
@@ -6511,8 +6511,8 @@
       <c r="M14" s="3"/>
     </row>
     <row r="15" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="340"/>
-      <c r="C15" s="343"/>
+      <c r="B15" s="324"/>
+      <c r="C15" s="327"/>
       <c r="D15" s="10" t="s">
         <v>1</v>
       </c>
@@ -6541,8 +6541,8 @@
       <c r="M15" s="3"/>
     </row>
     <row r="16" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="340"/>
-      <c r="C16" s="343"/>
+      <c r="B16" s="324"/>
+      <c r="C16" s="327"/>
       <c r="D16" s="9" t="s">
         <v>2</v>
       </c>
@@ -6571,8 +6571,8 @@
       <c r="M16" s="3"/>
     </row>
     <row r="17" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="340"/>
-      <c r="C17" s="343"/>
+      <c r="B17" s="324"/>
+      <c r="C17" s="327"/>
       <c r="D17" s="9" t="s">
         <v>3</v>
       </c>
@@ -6601,8 +6601,8 @@
       <c r="M17" s="3"/>
     </row>
     <row r="18" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="340"/>
-      <c r="C18" s="344"/>
+      <c r="B18" s="324"/>
+      <c r="C18" s="328"/>
       <c r="D18" s="11" t="s">
         <v>4</v>
       </c>
@@ -6631,8 +6631,8 @@
       <c r="M18" s="3"/>
     </row>
     <row r="19" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="340"/>
-      <c r="C19" s="345" t="s">
+      <c r="B19" s="324"/>
+      <c r="C19" s="329" t="s">
         <v>30</v>
       </c>
       <c r="D19" s="10" t="s">
@@ -6664,8 +6664,8 @@
       <c r="N19" s="12"/>
     </row>
     <row r="20" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="340"/>
-      <c r="C20" s="343"/>
+      <c r="B20" s="324"/>
+      <c r="C20" s="327"/>
       <c r="D20" s="9" t="s">
         <v>8</v>
       </c>
@@ -6695,8 +6695,8 @@
       <c r="N20" s="12"/>
     </row>
     <row r="21" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="340"/>
-      <c r="C21" s="343"/>
+      <c r="B21" s="324"/>
+      <c r="C21" s="327"/>
       <c r="D21" s="10" t="s">
         <v>1</v>
       </c>
@@ -6726,8 +6726,8 @@
       <c r="N21" s="12"/>
     </row>
     <row r="22" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="340"/>
-      <c r="C22" s="343"/>
+      <c r="B22" s="324"/>
+      <c r="C22" s="327"/>
       <c r="D22" s="9" t="s">
         <v>2</v>
       </c>
@@ -6757,8 +6757,8 @@
       <c r="N22" s="12"/>
     </row>
     <row r="23" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="340"/>
-      <c r="C23" s="343"/>
+      <c r="B23" s="324"/>
+      <c r="C23" s="327"/>
       <c r="D23" s="9" t="s">
         <v>3</v>
       </c>
@@ -6787,8 +6787,8 @@
       <c r="M23" s="3"/>
     </row>
     <row r="24" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="340"/>
-      <c r="C24" s="344"/>
+      <c r="B24" s="324"/>
+      <c r="C24" s="328"/>
       <c r="D24" s="11" t="s">
         <v>4</v>
       </c>
@@ -6830,10 +6830,10 @@
       <c r="L25" s="16"/>
     </row>
     <row r="26" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="339" t="s">
+      <c r="B26" s="323" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="342" t="s">
+      <c r="C26" s="326" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="146" t="s">
@@ -6863,8 +6863,8 @@
       </c>
     </row>
     <row r="27" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="340"/>
-      <c r="C27" s="343"/>
+      <c r="B27" s="324"/>
+      <c r="C27" s="327"/>
       <c r="D27" s="9" t="s">
         <v>8</v>
       </c>
@@ -6892,8 +6892,8 @@
       </c>
     </row>
     <row r="28" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="340"/>
-      <c r="C28" s="343"/>
+      <c r="B28" s="324"/>
+      <c r="C28" s="327"/>
       <c r="D28" s="10" t="s">
         <v>1</v>
       </c>
@@ -6921,8 +6921,8 @@
       </c>
     </row>
     <row r="29" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="340"/>
-      <c r="C29" s="343"/>
+      <c r="B29" s="324"/>
+      <c r="C29" s="327"/>
       <c r="D29" s="9" t="s">
         <v>2</v>
       </c>
@@ -6950,8 +6950,8 @@
       </c>
     </row>
     <row r="30" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="340"/>
-      <c r="C30" s="343"/>
+      <c r="B30" s="324"/>
+      <c r="C30" s="327"/>
       <c r="D30" s="9" t="s">
         <v>3</v>
       </c>
@@ -6979,8 +6979,8 @@
       </c>
     </row>
     <row r="31" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="340"/>
-      <c r="C31" s="344"/>
+      <c r="B31" s="324"/>
+      <c r="C31" s="328"/>
       <c r="D31" s="11" t="s">
         <v>4</v>
       </c>
@@ -7008,8 +7008,8 @@
       </c>
     </row>
     <row r="32" spans="2:14" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="340"/>
-      <c r="C32" s="345" t="s">
+      <c r="B32" s="324"/>
+      <c r="C32" s="329" t="s">
         <v>0</v>
       </c>
       <c r="D32" s="10" t="s">
@@ -7039,8 +7039,8 @@
       </c>
     </row>
     <row r="33" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="340"/>
-      <c r="C33" s="343"/>
+      <c r="B33" s="324"/>
+      <c r="C33" s="327"/>
       <c r="D33" s="9" t="s">
         <v>8</v>
       </c>
@@ -7068,8 +7068,8 @@
       </c>
     </row>
     <row r="34" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B34" s="340"/>
-      <c r="C34" s="343"/>
+      <c r="B34" s="324"/>
+      <c r="C34" s="327"/>
       <c r="D34" s="10" t="s">
         <v>1</v>
       </c>
@@ -7098,8 +7098,8 @@
       <c r="N34" s="12"/>
     </row>
     <row r="35" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B35" s="340"/>
-      <c r="C35" s="343"/>
+      <c r="B35" s="324"/>
+      <c r="C35" s="327"/>
       <c r="D35" s="9" t="s">
         <v>2</v>
       </c>
@@ -7128,8 +7128,8 @@
       <c r="N35" s="12"/>
     </row>
     <row r="36" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B36" s="340"/>
-      <c r="C36" s="343"/>
+      <c r="B36" s="324"/>
+      <c r="C36" s="327"/>
       <c r="D36" s="9" t="s">
         <v>3</v>
       </c>
@@ -7157,8 +7157,8 @@
       </c>
     </row>
     <row r="37" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="340"/>
-      <c r="C37" s="344"/>
+      <c r="B37" s="324"/>
+      <c r="C37" s="328"/>
       <c r="D37" s="11" t="s">
         <v>4</v>
       </c>
@@ -7186,8 +7186,8 @@
       </c>
     </row>
     <row r="38" spans="2:14" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="340"/>
-      <c r="C38" s="345" t="s">
+      <c r="B38" s="324"/>
+      <c r="C38" s="329" t="s">
         <v>30</v>
       </c>
       <c r="D38" s="10" t="s">
@@ -7217,8 +7217,8 @@
       </c>
     </row>
     <row r="39" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B39" s="340"/>
-      <c r="C39" s="343"/>
+      <c r="B39" s="324"/>
+      <c r="C39" s="327"/>
       <c r="D39" s="9" t="s">
         <v>8</v>
       </c>
@@ -7246,8 +7246,8 @@
       </c>
     </row>
     <row r="40" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="340"/>
-      <c r="C40" s="343"/>
+      <c r="B40" s="324"/>
+      <c r="C40" s="327"/>
       <c r="D40" s="10" t="s">
         <v>1</v>
       </c>
@@ -7275,8 +7275,8 @@
       </c>
     </row>
     <row r="41" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B41" s="340"/>
-      <c r="C41" s="343"/>
+      <c r="B41" s="324"/>
+      <c r="C41" s="327"/>
       <c r="D41" s="9" t="s">
         <v>2</v>
       </c>
@@ -7304,8 +7304,8 @@
       </c>
     </row>
     <row r="42" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B42" s="340"/>
-      <c r="C42" s="343"/>
+      <c r="B42" s="324"/>
+      <c r="C42" s="327"/>
       <c r="D42" s="9" t="s">
         <v>3</v>
       </c>
@@ -7333,8 +7333,8 @@
       </c>
     </row>
     <row r="43" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="341"/>
-      <c r="C43" s="346"/>
+      <c r="B43" s="325"/>
+      <c r="C43" s="330"/>
       <c r="D43" s="34" t="s">
         <v>4</v>
       </c>
@@ -7375,10 +7375,10 @@
       <c r="L44" s="16"/>
     </row>
     <row r="45" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B45" s="339" t="s">
+      <c r="B45" s="323" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="342" t="s">
+      <c r="C45" s="326" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="146" t="s">
@@ -7394,8 +7394,8 @@
       <c r="L45" s="72"/>
     </row>
     <row r="46" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B46" s="340"/>
-      <c r="C46" s="343"/>
+      <c r="B46" s="324"/>
+      <c r="C46" s="327"/>
       <c r="D46" s="9" t="s">
         <v>8</v>
       </c>
@@ -7409,8 +7409,8 @@
       <c r="L46" s="53"/>
     </row>
     <row r="47" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="340"/>
-      <c r="C47" s="343"/>
+      <c r="B47" s="324"/>
+      <c r="C47" s="327"/>
       <c r="D47" s="10" t="s">
         <v>1</v>
       </c>
@@ -7424,8 +7424,8 @@
       <c r="L47" s="81"/>
     </row>
     <row r="48" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B48" s="340"/>
-      <c r="C48" s="343"/>
+      <c r="B48" s="324"/>
+      <c r="C48" s="327"/>
       <c r="D48" s="9" t="s">
         <v>2</v>
       </c>
@@ -7439,8 +7439,8 @@
       <c r="L48" s="82"/>
     </row>
     <row r="49" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B49" s="340"/>
-      <c r="C49" s="343"/>
+      <c r="B49" s="324"/>
+      <c r="C49" s="327"/>
       <c r="D49" s="9" t="s">
         <v>3</v>
       </c>
@@ -7454,8 +7454,8 @@
       <c r="L49" s="82"/>
     </row>
     <row r="50" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="340"/>
-      <c r="C50" s="344"/>
+      <c r="B50" s="324"/>
+      <c r="C50" s="328"/>
       <c r="D50" s="11" t="s">
         <v>4</v>
       </c>
@@ -7469,8 +7469,8 @@
       <c r="L50" s="83"/>
     </row>
     <row r="51" spans="2:12" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="340"/>
-      <c r="C51" s="345" t="s">
+      <c r="B51" s="324"/>
+      <c r="C51" s="329" t="s">
         <v>0</v>
       </c>
       <c r="D51" s="10" t="s">
@@ -7486,8 +7486,8 @@
       <c r="L51" s="84"/>
     </row>
     <row r="52" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B52" s="340"/>
-      <c r="C52" s="343"/>
+      <c r="B52" s="324"/>
+      <c r="C52" s="327"/>
       <c r="D52" s="9" t="s">
         <v>8</v>
       </c>
@@ -7501,8 +7501,8 @@
       <c r="L52" s="60"/>
     </row>
     <row r="53" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B53" s="340"/>
-      <c r="C53" s="343"/>
+      <c r="B53" s="324"/>
+      <c r="C53" s="327"/>
       <c r="D53" s="10" t="s">
         <v>1</v>
       </c>
@@ -7516,8 +7516,8 @@
       <c r="L53" s="60"/>
     </row>
     <row r="54" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B54" s="340"/>
-      <c r="C54" s="343"/>
+      <c r="B54" s="324"/>
+      <c r="C54" s="327"/>
       <c r="D54" s="9" t="s">
         <v>2</v>
       </c>
@@ -7531,8 +7531,8 @@
       <c r="L54" s="60"/>
     </row>
     <row r="55" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B55" s="340"/>
-      <c r="C55" s="343"/>
+      <c r="B55" s="324"/>
+      <c r="C55" s="327"/>
       <c r="D55" s="9" t="s">
         <v>3</v>
       </c>
@@ -7546,8 +7546,8 @@
       <c r="L55" s="84"/>
     </row>
     <row r="56" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="340"/>
-      <c r="C56" s="344"/>
+      <c r="B56" s="324"/>
+      <c r="C56" s="328"/>
       <c r="D56" s="11" t="s">
         <v>4</v>
       </c>
@@ -7561,8 +7561,8 @@
       <c r="L56" s="194"/>
     </row>
     <row r="57" spans="2:12" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="340"/>
-      <c r="C57" s="345" t="s">
+      <c r="B57" s="324"/>
+      <c r="C57" s="329" t="s">
         <v>30</v>
       </c>
       <c r="D57" s="10" t="s">
@@ -7578,8 +7578,8 @@
       <c r="L57" s="84"/>
     </row>
     <row r="58" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B58" s="340"/>
-      <c r="C58" s="343"/>
+      <c r="B58" s="324"/>
+      <c r="C58" s="327"/>
       <c r="D58" s="9" t="s">
         <v>8</v>
       </c>
@@ -7593,8 +7593,8 @@
       <c r="L58" s="60"/>
     </row>
     <row r="59" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B59" s="340"/>
-      <c r="C59" s="343"/>
+      <c r="B59" s="324"/>
+      <c r="C59" s="327"/>
       <c r="D59" s="10" t="s">
         <v>1</v>
       </c>
@@ -7608,8 +7608,8 @@
       <c r="L59" s="60"/>
     </row>
     <row r="60" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B60" s="340"/>
-      <c r="C60" s="343"/>
+      <c r="B60" s="324"/>
+      <c r="C60" s="327"/>
       <c r="D60" s="9" t="s">
         <v>2</v>
       </c>
@@ -7623,8 +7623,8 @@
       <c r="L60" s="60"/>
     </row>
     <row r="61" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B61" s="340"/>
-      <c r="C61" s="343"/>
+      <c r="B61" s="324"/>
+      <c r="C61" s="327"/>
       <c r="D61" s="9" t="s">
         <v>3</v>
       </c>
@@ -7638,8 +7638,8 @@
       <c r="L61" s="84"/>
     </row>
     <row r="62" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="341"/>
-      <c r="C62" s="346"/>
+      <c r="B62" s="325"/>
+      <c r="C62" s="330"/>
       <c r="D62" s="34" t="s">
         <v>4</v>
       </c>
@@ -7654,6 +7654,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C26:C31"/>
+    <mergeCell ref="C32:C37"/>
+    <mergeCell ref="C45:C50"/>
+    <mergeCell ref="B26:B43"/>
+    <mergeCell ref="C38:C43"/>
+    <mergeCell ref="B45:B62"/>
+    <mergeCell ref="C51:C56"/>
+    <mergeCell ref="C57:C62"/>
     <mergeCell ref="B7:B24"/>
     <mergeCell ref="C7:C12"/>
     <mergeCell ref="C19:C24"/>
@@ -7663,14 +7671,6 @@
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="C13:C18"/>
-    <mergeCell ref="C26:C31"/>
-    <mergeCell ref="C32:C37"/>
-    <mergeCell ref="C45:C50"/>
-    <mergeCell ref="B26:B43"/>
-    <mergeCell ref="C38:C43"/>
-    <mergeCell ref="B45:B62"/>
-    <mergeCell ref="C51:C56"/>
-    <mergeCell ref="C57:C62"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7703,18 +7703,18 @@
   <sheetData>
     <row r="1" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:14" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E2" s="347" t="s">
+      <c r="E2" s="331" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="324"/>
-      <c r="G2" s="324"/>
-      <c r="H2" s="325"/>
+      <c r="F2" s="332"/>
+      <c r="G2" s="332"/>
+      <c r="H2" s="333"/>
       <c r="I2" s="23"/>
-      <c r="J2" s="323" t="s">
+      <c r="J2" s="337" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="324"/>
-      <c r="L2" s="325"/>
+      <c r="K2" s="332"/>
+      <c r="L2" s="333"/>
     </row>
     <row r="3" spans="2:14" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="357" t="s">
@@ -7722,14 +7722,14 @@
       </c>
       <c r="C3" s="358"/>
       <c r="D3" s="359"/>
-      <c r="E3" s="329" t="s">
+      <c r="E3" s="341" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="330"/>
-      <c r="G3" s="331" t="s">
+      <c r="F3" s="342"/>
+      <c r="G3" s="343" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="330"/>
+      <c r="H3" s="342"/>
       <c r="I3" s="24"/>
       <c r="J3" s="19" t="s">
         <v>20</v>
@@ -7825,10 +7825,10 @@
       <c r="M6" s="1"/>
     </row>
     <row r="7" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="340" t="s">
+      <c r="B7" s="324" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="343" t="s">
+      <c r="C7" s="327" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="9" t="s">
@@ -7859,8 +7859,8 @@
       <c r="M7" s="3"/>
     </row>
     <row r="8" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="340"/>
-      <c r="C8" s="343"/>
+      <c r="B8" s="324"/>
+      <c r="C8" s="327"/>
       <c r="D8" s="9" t="s">
         <v>3</v>
       </c>
@@ -7889,8 +7889,8 @@
       <c r="M8" s="2"/>
     </row>
     <row r="9" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="340"/>
-      <c r="C9" s="344"/>
+      <c r="B9" s="324"/>
+      <c r="C9" s="328"/>
       <c r="D9" s="11" t="s">
         <v>4</v>
       </c>
@@ -7919,8 +7919,8 @@
       <c r="M9" s="3"/>
     </row>
     <row r="10" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="340"/>
-      <c r="C10" s="343" t="s">
+      <c r="B10" s="324"/>
+      <c r="C10" s="327" t="s">
         <v>0</v>
       </c>
       <c r="D10" s="9" t="s">
@@ -7951,8 +7951,8 @@
       <c r="M10" s="3"/>
     </row>
     <row r="11" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="340"/>
-      <c r="C11" s="343"/>
+      <c r="B11" s="324"/>
+      <c r="C11" s="327"/>
       <c r="D11" s="9" t="s">
         <v>2</v>
       </c>
@@ -7981,8 +7981,8 @@
       <c r="M11" s="3"/>
     </row>
     <row r="12" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="340"/>
-      <c r="C12" s="344"/>
+      <c r="B12" s="324"/>
+      <c r="C12" s="328"/>
       <c r="D12" s="11" t="s">
         <v>4</v>
       </c>
@@ -8011,8 +8011,8 @@
       <c r="M12" s="3"/>
     </row>
     <row r="13" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="340"/>
-      <c r="C13" s="343" t="s">
+      <c r="B13" s="324"/>
+      <c r="C13" s="327" t="s">
         <v>30</v>
       </c>
       <c r="D13" s="9" t="s">
@@ -8044,8 +8044,8 @@
       <c r="N13" s="12"/>
     </row>
     <row r="14" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="340"/>
-      <c r="C14" s="343"/>
+      <c r="B14" s="324"/>
+      <c r="C14" s="327"/>
       <c r="D14" s="9" t="s">
         <v>2</v>
       </c>
@@ -8075,8 +8075,8 @@
       <c r="N14" s="12"/>
     </row>
     <row r="15" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="340"/>
-      <c r="C15" s="343"/>
+      <c r="B15" s="324"/>
+      <c r="C15" s="327"/>
       <c r="D15" s="9" t="s">
         <v>3</v>
       </c>
@@ -8105,8 +8105,8 @@
       <c r="M15" s="3"/>
     </row>
     <row r="16" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="340"/>
-      <c r="C16" s="344"/>
+      <c r="B16" s="324"/>
+      <c r="C16" s="328"/>
       <c r="D16" s="11" t="s">
         <v>4</v>
       </c>
@@ -8148,10 +8148,10 @@
       <c r="L17" s="16"/>
     </row>
     <row r="18" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="340" t="s">
+      <c r="B18" s="324" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="343" t="s">
+      <c r="C18" s="327" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="9" t="s">
@@ -8181,8 +8181,8 @@
       </c>
     </row>
     <row r="19" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="340"/>
-      <c r="C19" s="343"/>
+      <c r="B19" s="324"/>
+      <c r="C19" s="327"/>
       <c r="D19" s="9" t="s">
         <v>3</v>
       </c>
@@ -8210,8 +8210,8 @@
       </c>
     </row>
     <row r="20" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="340"/>
-      <c r="C20" s="344"/>
+      <c r="B20" s="324"/>
+      <c r="C20" s="328"/>
       <c r="D20" s="11" t="s">
         <v>4</v>
       </c>
@@ -8239,8 +8239,8 @@
       </c>
     </row>
     <row r="21" spans="2:14" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="340"/>
-      <c r="C21" s="345" t="s">
+      <c r="B21" s="324"/>
+      <c r="C21" s="329" t="s">
         <v>0</v>
       </c>
       <c r="D21" s="10" t="s">
@@ -8270,8 +8270,8 @@
       </c>
     </row>
     <row r="22" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="340"/>
-      <c r="C22" s="343"/>
+      <c r="B22" s="324"/>
+      <c r="C22" s="327"/>
       <c r="D22" s="9" t="s">
         <v>2</v>
       </c>
@@ -8300,8 +8300,8 @@
       <c r="N22" s="12"/>
     </row>
     <row r="23" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="340"/>
-      <c r="C23" s="344"/>
+      <c r="B23" s="324"/>
+      <c r="C23" s="328"/>
       <c r="D23" s="11" t="s">
         <v>4</v>
       </c>
@@ -8329,8 +8329,8 @@
       </c>
     </row>
     <row r="24" spans="2:14" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="340"/>
-      <c r="C24" s="345" t="s">
+      <c r="B24" s="324"/>
+      <c r="C24" s="329" t="s">
         <v>30</v>
       </c>
       <c r="D24" s="10" t="s">
@@ -8360,8 +8360,8 @@
       </c>
     </row>
     <row r="25" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="340"/>
-      <c r="C25" s="343"/>
+      <c r="B25" s="324"/>
+      <c r="C25" s="327"/>
       <c r="D25" s="9" t="s">
         <v>8</v>
       </c>
@@ -8389,8 +8389,8 @@
       </c>
     </row>
     <row r="26" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="340"/>
-      <c r="C26" s="343"/>
+      <c r="B26" s="324"/>
+      <c r="C26" s="327"/>
       <c r="D26" s="9" t="s">
         <v>2</v>
       </c>
@@ -8418,8 +8418,8 @@
       </c>
     </row>
     <row r="27" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="340"/>
-      <c r="C27" s="343"/>
+      <c r="B27" s="324"/>
+      <c r="C27" s="327"/>
       <c r="D27" s="9" t="s">
         <v>3</v>
       </c>
@@ -8460,10 +8460,10 @@
       <c r="L28" s="16"/>
     </row>
     <row r="29" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="339" t="s">
+      <c r="B29" s="323" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="342" t="s">
+      <c r="C29" s="326" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="146" t="s">
@@ -8479,8 +8479,8 @@
       <c r="L29" s="72"/>
     </row>
     <row r="30" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="340"/>
-      <c r="C30" s="343"/>
+      <c r="B30" s="324"/>
+      <c r="C30" s="327"/>
       <c r="D30" s="9" t="s">
         <v>8</v>
       </c>
@@ -8494,8 +8494,8 @@
       <c r="L30" s="53"/>
     </row>
     <row r="31" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B31" s="340"/>
-      <c r="C31" s="343"/>
+      <c r="B31" s="324"/>
+      <c r="C31" s="327"/>
       <c r="D31" s="10" t="s">
         <v>1</v>
       </c>
@@ -8509,8 +8509,8 @@
       <c r="L31" s="81"/>
     </row>
     <row r="32" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B32" s="340"/>
-      <c r="C32" s="343"/>
+      <c r="B32" s="324"/>
+      <c r="C32" s="327"/>
       <c r="D32" s="9" t="s">
         <v>2</v>
       </c>
@@ -8524,8 +8524,8 @@
       <c r="L32" s="82"/>
     </row>
     <row r="33" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="340"/>
-      <c r="C33" s="343"/>
+      <c r="B33" s="324"/>
+      <c r="C33" s="327"/>
       <c r="D33" s="9" t="s">
         <v>3</v>
       </c>
@@ -8539,8 +8539,8 @@
       <c r="L33" s="82"/>
     </row>
     <row r="34" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="340"/>
-      <c r="C34" s="344"/>
+      <c r="B34" s="324"/>
+      <c r="C34" s="328"/>
       <c r="D34" s="11" t="s">
         <v>4</v>
       </c>
@@ -8554,8 +8554,8 @@
       <c r="L34" s="83"/>
     </row>
     <row r="35" spans="2:12" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="340"/>
-      <c r="C35" s="345" t="s">
+      <c r="B35" s="324"/>
+      <c r="C35" s="329" t="s">
         <v>0</v>
       </c>
       <c r="D35" s="10" t="s">
@@ -8571,8 +8571,8 @@
       <c r="L35" s="84"/>
     </row>
     <row r="36" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B36" s="340"/>
-      <c r="C36" s="343"/>
+      <c r="B36" s="324"/>
+      <c r="C36" s="327"/>
       <c r="D36" s="9" t="s">
         <v>8</v>
       </c>
@@ -8586,8 +8586,8 @@
       <c r="L36" s="60"/>
     </row>
     <row r="37" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B37" s="340"/>
-      <c r="C37" s="343"/>
+      <c r="B37" s="324"/>
+      <c r="C37" s="327"/>
       <c r="D37" s="10" t="s">
         <v>1</v>
       </c>
@@ -8601,8 +8601,8 @@
       <c r="L37" s="60"/>
     </row>
     <row r="38" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B38" s="340"/>
-      <c r="C38" s="343"/>
+      <c r="B38" s="324"/>
+      <c r="C38" s="327"/>
       <c r="D38" s="9" t="s">
         <v>2</v>
       </c>
@@ -8616,8 +8616,8 @@
       <c r="L38" s="60"/>
     </row>
     <row r="39" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B39" s="340"/>
-      <c r="C39" s="343"/>
+      <c r="B39" s="324"/>
+      <c r="C39" s="327"/>
       <c r="D39" s="9" t="s">
         <v>3</v>
       </c>
@@ -8631,8 +8631,8 @@
       <c r="L39" s="84"/>
     </row>
     <row r="40" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="340"/>
-      <c r="C40" s="344"/>
+      <c r="B40" s="324"/>
+      <c r="C40" s="328"/>
       <c r="D40" s="11" t="s">
         <v>4</v>
       </c>
@@ -8646,8 +8646,8 @@
       <c r="L40" s="194"/>
     </row>
     <row r="41" spans="2:12" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="340"/>
-      <c r="C41" s="345" t="s">
+      <c r="B41" s="324"/>
+      <c r="C41" s="329" t="s">
         <v>30</v>
       </c>
       <c r="D41" s="10" t="s">
@@ -8663,8 +8663,8 @@
       <c r="L41" s="84"/>
     </row>
     <row r="42" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B42" s="340"/>
-      <c r="C42" s="343"/>
+      <c r="B42" s="324"/>
+      <c r="C42" s="327"/>
       <c r="D42" s="9" t="s">
         <v>8</v>
       </c>
@@ -8678,8 +8678,8 @@
       <c r="L42" s="60"/>
     </row>
     <row r="43" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B43" s="340"/>
-      <c r="C43" s="343"/>
+      <c r="B43" s="324"/>
+      <c r="C43" s="327"/>
       <c r="D43" s="10" t="s">
         <v>1</v>
       </c>
@@ -8693,8 +8693,8 @@
       <c r="L43" s="60"/>
     </row>
     <row r="44" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B44" s="340"/>
-      <c r="C44" s="343"/>
+      <c r="B44" s="324"/>
+      <c r="C44" s="327"/>
       <c r="D44" s="9" t="s">
         <v>2</v>
       </c>
@@ -8708,8 +8708,8 @@
       <c r="L44" s="60"/>
     </row>
     <row r="45" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B45" s="340"/>
-      <c r="C45" s="343"/>
+      <c r="B45" s="324"/>
+      <c r="C45" s="327"/>
       <c r="D45" s="9" t="s">
         <v>3</v>
       </c>
@@ -8723,8 +8723,8 @@
       <c r="L45" s="84"/>
     </row>
     <row r="46" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="341"/>
-      <c r="C46" s="346"/>
+      <c r="B46" s="325"/>
+      <c r="C46" s="330"/>
       <c r="D46" s="34" t="s">
         <v>4</v>
       </c>
@@ -8739,11 +8739,10 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B7:B16"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="B29:B46"/>
+    <mergeCell ref="C29:C34"/>
+    <mergeCell ref="C35:C40"/>
+    <mergeCell ref="C41:C46"/>
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="E3:F3"/>
@@ -8752,10 +8751,11 @@
     <mergeCell ref="C18:C20"/>
     <mergeCell ref="C21:C23"/>
     <mergeCell ref="C24:C27"/>
-    <mergeCell ref="B29:B46"/>
-    <mergeCell ref="C29:C34"/>
-    <mergeCell ref="C35:C40"/>
-    <mergeCell ref="C41:C46"/>
+    <mergeCell ref="B7:B16"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="E2:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8767,7 +8767,7 @@
   <dimension ref="B1:U27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="50" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8809,18 +8809,18 @@
       <c r="B3"/>
       <c r="C3"/>
       <c r="D3"/>
-      <c r="E3" s="347" t="s">
+      <c r="E3" s="331" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="324"/>
-      <c r="G3" s="324"/>
-      <c r="H3" s="325"/>
+      <c r="F3" s="332"/>
+      <c r="G3" s="332"/>
+      <c r="H3" s="333"/>
       <c r="I3" s="23"/>
-      <c r="J3" s="323" t="s">
+      <c r="J3" s="337" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="324"/>
-      <c r="L3" s="325"/>
+      <c r="K3" s="332"/>
+      <c r="L3" s="333"/>
     </row>
     <row r="4" spans="2:21" s="39" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="357" t="s">
@@ -8828,14 +8828,14 @@
       </c>
       <c r="C4" s="358"/>
       <c r="D4" s="359"/>
-      <c r="E4" s="329" t="s">
+      <c r="E4" s="341" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="330"/>
-      <c r="G4" s="331" t="s">
+      <c r="F4" s="342"/>
+      <c r="G4" s="343" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="330"/>
+      <c r="H4" s="342"/>
       <c r="I4" s="24"/>
       <c r="J4" s="283" t="s">
         <v>20</v>
@@ -9405,17 +9405,17 @@
       <c r="B3"/>
       <c r="C3"/>
       <c r="D3"/>
-      <c r="E3" s="347" t="s">
+      <c r="E3" s="331" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="324"/>
-      <c r="G3" s="324"/>
-      <c r="H3" s="325"/>
-      <c r="I3" s="323" t="s">
+      <c r="F3" s="332"/>
+      <c r="G3" s="332"/>
+      <c r="H3" s="333"/>
+      <c r="I3" s="337" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="324"/>
-      <c r="K3" s="325"/>
+      <c r="J3" s="332"/>
+      <c r="K3" s="333"/>
     </row>
     <row r="4" spans="2:22" s="39" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="357" t="s">
@@ -9423,14 +9423,14 @@
       </c>
       <c r="C4" s="358"/>
       <c r="D4" s="359"/>
-      <c r="E4" s="329" t="s">
+      <c r="E4" s="341" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="330"/>
-      <c r="G4" s="331" t="s">
+      <c r="F4" s="342"/>
+      <c r="G4" s="343" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="330"/>
+      <c r="H4" s="342"/>
       <c r="I4" s="19" t="s">
         <v>20</v>
       </c>
@@ -9631,7 +9631,7 @@
       <c r="B11" s="352" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="333" t="s">
+      <c r="C11" s="335" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="10" t="s">
@@ -9658,7 +9658,7 @@
     </row>
     <row r="12" spans="2:22" s="39" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="353"/>
-      <c r="C12" s="348"/>
+      <c r="C12" s="336"/>
       <c r="D12" s="34" t="s">
         <v>25</v>
       </c>
@@ -9699,7 +9699,7 @@
       <c r="B14" s="352" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="333" t="s">
+      <c r="C14" s="335" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="10" t="s">
@@ -9717,7 +9717,7 @@
     </row>
     <row r="15" spans="2:22" s="39" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="353"/>
-      <c r="C15" s="348"/>
+      <c r="C15" s="336"/>
       <c r="D15" s="34" t="s">
         <v>25</v>
       </c>
@@ -9894,17 +9894,17 @@
     <row r="33" s="39" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="E3:H3"/>
     <mergeCell ref="I3:K3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="C6:C8"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="E3:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9954,17 +9954,17 @@
       <c r="B3"/>
       <c r="C3"/>
       <c r="D3"/>
-      <c r="E3" s="347" t="s">
+      <c r="E3" s="331" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="324"/>
-      <c r="G3" s="324"/>
-      <c r="H3" s="325"/>
-      <c r="I3" s="323" t="s">
+      <c r="F3" s="332"/>
+      <c r="G3" s="332"/>
+      <c r="H3" s="333"/>
+      <c r="I3" s="337" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="324"/>
-      <c r="K3" s="325"/>
+      <c r="J3" s="332"/>
+      <c r="K3" s="333"/>
     </row>
     <row r="4" spans="2:20" s="39" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="357" t="s">
@@ -9972,14 +9972,14 @@
       </c>
       <c r="C4" s="358"/>
       <c r="D4" s="359"/>
-      <c r="E4" s="329" t="s">
+      <c r="E4" s="341" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="330"/>
-      <c r="G4" s="331" t="s">
+      <c r="F4" s="342"/>
+      <c r="G4" s="343" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="330"/>
+      <c r="H4" s="342"/>
       <c r="I4" s="19" t="s">
         <v>20</v>
       </c>
@@ -10144,7 +10144,7 @@
       <c r="B10" s="352" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="333" t="s">
+      <c r="C10" s="335" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="10" t="s">
@@ -10169,7 +10169,7 @@
     </row>
     <row r="11" spans="2:20" s="39" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="353"/>
-      <c r="C11" s="348"/>
+      <c r="C11" s="336"/>
       <c r="D11" s="34" t="s">
         <v>26</v>
       </c>
@@ -10215,7 +10215,7 @@
       <c r="B13" s="352" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="333" t="s">
+      <c r="C13" s="335" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="10" t="s">
@@ -10240,7 +10240,7 @@
     </row>
     <row r="14" spans="2:20" s="39" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="353"/>
-      <c r="C14" s="348"/>
+      <c r="C14" s="336"/>
       <c r="D14" s="34" t="s">
         <v>26</v>
       </c>
@@ -10417,17 +10417,17 @@
     <row r="32" spans="2:12" s="39" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="E3:H3"/>
     <mergeCell ref="I3:K3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E3:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10435,6 +10435,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A69AE6C51AEE6142AD84D9FB7E253133" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="688ae3312de6a1cdf808e1735a79ca91">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="756e89ea-a5fb-4d06-a9be-9b8635efcbbf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7ae5de413dc6742d84d7e8ba9b183640" ns3:_="">
     <xsd:import namespace="756e89ea-a5fb-4d06-a9be-9b8635efcbbf"/>
@@ -10610,22 +10625,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A6A8E2B-A170-438C-86CD-560003D30CAB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="756e89ea-a5fb-4d06-a9be-9b8635efcbbf"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06DA2F1B-717B-4D32-8536-28EBD29FAA3A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F55020E-069C-4126-815D-85E5FA260EED}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10641,28 +10665,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06DA2F1B-717B-4D32-8536-28EBD29FAA3A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A6A8E2B-A170-438C-86CD-560003D30CAB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="756e89ea-a5fb-4d06-a9be-9b8635efcbbf"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>